--- a/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE8621C-62DA-487E-B05C-367CA48CFE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7B6038A-0915-4739-A305-28964EE71D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CBC21B2A-7493-47E9-9989-F86799BB4C51}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D8DDF2C-94FB-4778-A8D3-208D7399F601}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>7,89%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>92,11%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>13,03%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>87,88%</t>
   </si>
   <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,49 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +245,55 @@
     <t>7,51%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>90,3%</t>
   </si>
   <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +302,55 @@
     <t>9,3%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>89,96%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,19 +359,19 @@
     <t>10,18%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
   </si>
   <si>
     <t>15,34%</t>
@@ -386,88 +380,82 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>34,48%</t>
+    <t>33,06%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>84,66%</t>
   </si>
   <si>
-    <t>65,52%</t>
+    <t>66,94%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE8054D-F248-438D-99B9-45FA154582EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FED8FB1-13C6-4651-BA1A-E51C713F6191}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1346,13 +1334,13 @@
         <v>108392</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,13 +1355,13 @@
         <v>494819</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>782</v>
@@ -1382,13 +1370,13 @@
         <v>563390</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1261</v>
@@ -1397,13 +1385,13 @@
         <v>1058210</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,7 +1447,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1471,13 +1459,13 @@
         <v>54308</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -1486,13 +1474,13 @@
         <v>88252</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -1501,13 +1489,13 @@
         <v>142561</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1510,13 @@
         <v>668646</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>1021</v>
@@ -1537,13 +1525,13 @@
         <v>658233</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1631</v>
@@ -1552,13 +1540,13 @@
         <v>1326878</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,7 +1602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1626,13 +1614,13 @@
         <v>55838</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -1641,13 +1629,13 @@
         <v>64312</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>165</v>
@@ -1656,13 +1644,13 @@
         <v>120151</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1665,13 @@
         <v>544319</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>898</v>
@@ -1692,13 +1680,13 @@
         <v>532089</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1499</v>
@@ -1707,13 +1695,13 @@
         <v>1076407</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1769,13 @@
         <v>71040</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>145</v>
@@ -1796,13 +1784,13 @@
         <v>193430</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>249</v>
@@ -1811,13 +1799,13 @@
         <v>264470</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,16 +1817,16 @@
         <v>924</v>
       </c>
       <c r="D20" s="7">
-        <v>626714</v>
+        <v>626715</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>1562</v>
@@ -1847,13 +1835,13 @@
         <v>832590</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>2486</v>
@@ -1862,13 +1850,13 @@
         <v>1459304</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,7 +1868,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1936,13 +1924,13 @@
         <v>329091</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>514</v>
@@ -1951,13 +1939,13 @@
         <v>491098</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>851</v>
@@ -1966,13 +1954,13 @@
         <v>820188</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1975,13 @@
         <v>3054941</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>4848</v>
@@ -2002,28 +1990,28 @@
         <v>3341489</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>7885</v>
       </c>
       <c r="N23" s="7">
-        <v>6396431</v>
+        <v>6396430</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2053,7 @@
         <v>8736</v>
       </c>
       <c r="N24" s="7">
-        <v>7216619</v>
+        <v>7216618</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2079,7 +2067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7B6038A-0915-4739-A305-28964EE71D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49D40A1E-0832-4468-BF2F-AF55E32AB878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D8DDF2C-94FB-4778-A8D3-208D7399F601}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5AA44D0B-D8D0-482B-860C-92770DA90A87}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -870,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FED8FB1-13C6-4651-BA1A-E51C713F6191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61790B7-2A0B-4CF2-80F7-7ACC087B28C4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49D40A1E-0832-4468-BF2F-AF55E32AB878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5F7D17-ABC2-4B9E-A258-BF21C3DC9501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5AA44D0B-D8D0-482B-860C-92770DA90A87}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AD8902B-D8CF-469A-8550-4F66C994C650}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
-  <si>
-    <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+  <si>
+    <t>Población con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>7,89%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>92,11%</t>
   </si>
   <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,325 +137,337 @@
     <t>13,03%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
   </si>
   <si>
     <t>90,28%</t>
   </si>
   <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>89,09%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61790B7-2A0B-4CF2-80F7-7ACC087B28C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA72F06-0608-46C6-9B81-5CD8CBEFB660}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1334,13 +1346,13 @@
         <v>108392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,13 +1367,13 @@
         <v>494819</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>782</v>
@@ -1370,13 +1382,13 @@
         <v>563390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1261</v>
@@ -1385,13 +1397,13 @@
         <v>1058210</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,7 +1459,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1459,13 +1471,13 @@
         <v>54308</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -1474,13 +1486,13 @@
         <v>88252</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -1489,13 +1501,13 @@
         <v>142561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,13 +1522,13 @@
         <v>668646</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>1021</v>
@@ -1525,13 +1537,13 @@
         <v>658233</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1631</v>
@@ -1540,13 +1552,13 @@
         <v>1326878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,7 +1614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1614,13 +1626,13 @@
         <v>55838</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -1629,13 +1641,13 @@
         <v>64312</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>165</v>
@@ -1644,13 +1656,13 @@
         <v>120151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1677,13 @@
         <v>544319</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>898</v>
@@ -1680,13 +1692,13 @@
         <v>532089</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1499</v>
@@ -1695,13 +1707,13 @@
         <v>1076407</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1781,13 @@
         <v>71040</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>145</v>
@@ -1784,13 +1796,13 @@
         <v>193430</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>249</v>
@@ -1799,13 +1811,13 @@
         <v>264470</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,16 +1829,16 @@
         <v>924</v>
       </c>
       <c r="D20" s="7">
-        <v>626715</v>
+        <v>626714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>1562</v>
@@ -1835,13 +1847,13 @@
         <v>832590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>2486</v>
@@ -1850,13 +1862,13 @@
         <v>1459304</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1880,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1924,13 +1936,13 @@
         <v>329091</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>514</v>
@@ -1939,13 +1951,13 @@
         <v>491098</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>851</v>
@@ -1954,13 +1966,13 @@
         <v>820188</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1987,13 @@
         <v>3054941</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>4848</v>
@@ -1990,28 +2002,28 @@
         <v>3341489</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>7885</v>
       </c>
       <c r="N23" s="7">
-        <v>6396430</v>
+        <v>6396431</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,7 +2065,7 @@
         <v>8736</v>
       </c>
       <c r="N24" s="7">
-        <v>7216618</v>
+        <v>7216619</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2067,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5F7D17-ABC2-4B9E-A258-BF21C3DC9501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F66B3E-9B44-4FE1-8894-609C697353FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AD8902B-D8CF-469A-8550-4F66C994C650}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8E663174-ACE5-4C4A-A7F3-EA040EF4308E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>Población con problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,409 +65,448 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>87,96%</t>
   </si>
   <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +921,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA72F06-0608-46C6-9B81-5CD8CBEFB660}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2759DCBF-5624-4FC6-87CC-39D9C8DA3738}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>29808</v>
+        <v>29813</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1057,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>38471</v>
+        <v>32688</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1072,7 @@
         <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>68280</v>
+        <v>62501</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1093,7 @@
         <v>159</v>
       </c>
       <c r="D5" s="7">
-        <v>347871</v>
+        <v>370174</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1108,7 @@
         <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>316486</v>
+        <v>280512</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1123,7 @@
         <v>341</v>
       </c>
       <c r="N5" s="7">
-        <v>664356</v>
+        <v>650686</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1144,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1159,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1174,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1197,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>55823</v>
+        <v>54290</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1173,7 +1212,7 @@
         <v>58</v>
       </c>
       <c r="I7" s="7">
-        <v>60512</v>
+        <v>53765</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1188,7 +1227,7 @@
         <v>96</v>
       </c>
       <c r="N7" s="7">
-        <v>116335</v>
+        <v>108055</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1209,7 +1248,7 @@
         <v>264</v>
       </c>
       <c r="D8" s="7">
-        <v>372573</v>
+        <v>369257</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1224,7 +1263,7 @@
         <v>403</v>
       </c>
       <c r="I8" s="7">
-        <v>438703</v>
+        <v>458328</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1239,7 +1278,7 @@
         <v>667</v>
       </c>
       <c r="N8" s="7">
-        <v>811276</v>
+        <v>827585</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1260,7 +1299,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1314,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1329,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1313,7 +1352,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>62273</v>
+        <v>59162</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1328,7 +1367,7 @@
         <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>46119</v>
+        <v>41874</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1343,7 +1382,7 @@
         <v>130</v>
       </c>
       <c r="N10" s="7">
-        <v>108392</v>
+        <v>101036</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1364,7 +1403,7 @@
         <v>479</v>
       </c>
       <c r="D11" s="7">
-        <v>494819</v>
+        <v>477012</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1379,7 +1418,7 @@
         <v>782</v>
       </c>
       <c r="I11" s="7">
-        <v>563390</v>
+        <v>549237</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1394,7 +1433,7 @@
         <v>1261</v>
       </c>
       <c r="N11" s="7">
-        <v>1058210</v>
+        <v>1026248</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1415,7 +1454,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>557092</v>
+        <v>536174</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1469,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>609509</v>
+        <v>591111</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1484,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1166602</v>
+        <v>1127284</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1468,7 +1507,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>54308</v>
+        <v>48998</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1483,7 +1522,7 @@
         <v>119</v>
       </c>
       <c r="I13" s="7">
-        <v>88252</v>
+        <v>78663</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1498,7 +1537,7 @@
         <v>173</v>
       </c>
       <c r="N13" s="7">
-        <v>142561</v>
+        <v>127661</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1519,7 +1558,7 @@
         <v>610</v>
       </c>
       <c r="D14" s="7">
-        <v>668646</v>
+        <v>837784</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1534,7 +1573,7 @@
         <v>1021</v>
       </c>
       <c r="I14" s="7">
-        <v>658233</v>
+        <v>633483</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1549,7 +1588,7 @@
         <v>1631</v>
       </c>
       <c r="N14" s="7">
-        <v>1326878</v>
+        <v>1471266</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1570,7 +1609,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722954</v>
+        <v>886782</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1624,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746485</v>
+        <v>712146</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1639,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1469439</v>
+        <v>1598927</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1623,7 +1662,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>55838</v>
+        <v>50620</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1638,31 +1677,31 @@
         <v>103</v>
       </c>
       <c r="I16" s="7">
-        <v>64312</v>
+        <v>57484</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>165</v>
       </c>
       <c r="N16" s="7">
-        <v>120151</v>
+        <v>108103</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,46 +1713,46 @@
         <v>601</v>
       </c>
       <c r="D17" s="7">
-        <v>544319</v>
+        <v>510614</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>898</v>
       </c>
       <c r="I17" s="7">
-        <v>532089</v>
+        <v>489809</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1499</v>
       </c>
       <c r="N17" s="7">
-        <v>1076407</v>
+        <v>1000423</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1764,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1779,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>596401</v>
+        <v>547293</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1794,7 @@
         <v>1664</v>
       </c>
       <c r="N18" s="7">
-        <v>1196558</v>
+        <v>1108526</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,55 +1808,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>71040</v>
+        <v>38056</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>60</v>
+      </c>
+      <c r="I19" s="7">
+        <v>234952</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>145</v>
-      </c>
-      <c r="I19" s="7">
-        <v>193430</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>121</v>
+      </c>
+      <c r="N19" s="7">
+        <v>273008</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>249</v>
-      </c>
-      <c r="N19" s="7">
-        <v>264470</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1865,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>924</v>
+        <v>509</v>
       </c>
       <c r="D20" s="7">
-        <v>626714</v>
+        <v>330109</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>766</v>
+      </c>
+      <c r="I20" s="7">
+        <v>372840</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>1562</v>
-      </c>
-      <c r="I20" s="7">
-        <v>832590</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1275</v>
+      </c>
+      <c r="N20" s="7">
+        <v>702950</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>2486</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1459304</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1931,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1026020</v>
+        <v>607792</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1946,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2735</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1723774</v>
+        <v>975958</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1963,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7">
-        <v>329091</v>
+        <v>26019</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>85</v>
+      </c>
+      <c r="I22" s="7">
+        <v>41984</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>514</v>
-      </c>
-      <c r="I22" s="7">
-        <v>491098</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>128</v>
+      </c>
+      <c r="N22" s="7">
+        <v>68003</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M22" s="7">
-        <v>851</v>
-      </c>
-      <c r="N22" s="7">
-        <v>820188</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2020,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3037</v>
+        <v>415</v>
       </c>
       <c r="D23" s="7">
-        <v>3054941</v>
+        <v>256740</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>796</v>
+      </c>
+      <c r="I23" s="7">
+        <v>383847</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>4848</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3341489</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>1211</v>
+      </c>
+      <c r="N23" s="7">
+        <v>640587</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M23" s="7">
-        <v>7885</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6396431</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2071,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>337</v>
+      </c>
+      <c r="D25" s="7">
+        <v>306958</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="7">
+        <v>514</v>
+      </c>
+      <c r="I25" s="7">
+        <v>541409</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>851</v>
+      </c>
+      <c r="N25" s="7">
+        <v>848367</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3037</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3151690</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4848</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3168056</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7885</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6319746</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384032</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458648</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5362</v>
       </c>
-      <c r="I24" s="7">
-        <v>3832587</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3709465</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8736</v>
       </c>
-      <c r="N24" s="7">
-        <v>7216619</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7168113</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
